--- a/runs/run862/NotionalETEOutput862.xlsx
+++ b/runs/run862/NotionalETEOutput862.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX1_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1_137.MISSILE_ANGERMAX1_137</t>
+    <t>MISSILE_BRAVER2_183.MISSILE_BRAVER2_183</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1539.097434166982</v>
+        <v>-1511.141383365982</v>
       </c>
       <c r="J2">
-        <v>1999.049959703281</v>
+        <v>1977.594664162797</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1523.970860982714</v>
+        <v>-1537.146974768298</v>
       </c>
       <c r="J3">
-        <v>1966.576524606707</v>
+        <v>1963.319047545951</v>
       </c>
       <c r="K3">
-        <v>289.8358963219806</v>
+        <v>298.2191561019741</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1504.963765510727</v>
+        <v>-1477.092638866951</v>
       </c>
       <c r="J4">
-        <v>1938.418111055253</v>
+        <v>1931.447446704069</v>
       </c>
       <c r="K4">
-        <v>606.224428921544</v>
+        <v>572.6172067516684</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1434.492762957535</v>
+        <v>-1449.271615301402</v>
       </c>
       <c r="J5">
-        <v>1926.256343735389</v>
+        <v>1917.181866159923</v>
       </c>
       <c r="K5">
-        <v>886.2725052749433</v>
+        <v>832.6564343686171</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1349.758134351408</v>
+        <v>-1394.645232948878</v>
       </c>
       <c r="J6">
-        <v>1873.771723049678</v>
+        <v>1770.141465114184</v>
       </c>
       <c r="K6">
-        <v>1140.730448821599</v>
+        <v>1074.303819326417</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1326.093914267087</v>
+        <v>-1385.471458967073</v>
       </c>
       <c r="J7">
-        <v>1777.429335720255</v>
+        <v>1761.227996149576</v>
       </c>
       <c r="K7">
-        <v>1330.917843349771</v>
+        <v>1395.919173744608</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1252.563942479375</v>
+        <v>-1289.660550834458</v>
       </c>
       <c r="J8">
-        <v>1778.790598200551</v>
+        <v>1644.738424297245</v>
       </c>
       <c r="K8">
-        <v>1655.076578302212</v>
+        <v>1591.548204137648</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-98.96921327724917</v>
+        <v>-102.7076589677852</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1329.200486221261</v>
+        <v>-1248.079962317951</v>
       </c>
       <c r="J9">
-        <v>1709.068846826518</v>
+        <v>1706.311287696135</v>
       </c>
       <c r="K9">
-        <v>1826.38360610531</v>
+        <v>1813.967800909288</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>223.9996604786907</v>
+        <v>211.2984608510315</v>
       </c>
       <c r="G10">
-        <v>-80.05081307178988</v>
+        <v>-81.50808107047196</v>
       </c>
       <c r="H10">
-        <v>831.0941550622248</v>
+        <v>818.127772709029</v>
       </c>
       <c r="I10">
-        <v>-1245.661711730934</v>
+        <v>-1222.750329698841</v>
       </c>
       <c r="J10">
-        <v>1573.027643059907</v>
+        <v>1542.102555330655</v>
       </c>
       <c r="K10">
-        <v>1952.817079119437</v>
+        <v>1954.886143683287</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>163.3841293473663</v>
+        <v>172.402240242268</v>
       </c>
       <c r="G11">
-        <v>-65.71663935447874</v>
+        <v>-66.12600074802771</v>
       </c>
       <c r="H11">
-        <v>1030.365744775291</v>
+        <v>1089.477122743358</v>
       </c>
       <c r="I11">
-        <v>-1203.16179697262</v>
+        <v>-1265.172547851252</v>
       </c>
       <c r="J11">
-        <v>1613.173685859264</v>
+        <v>1510.935007235867</v>
       </c>
       <c r="K11">
-        <v>2133.507239840604</v>
+        <v>2198.508476963164</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>144.9401176565374</v>
+        <v>145.7653016924304</v>
       </c>
       <c r="G12">
-        <v>-50.30702920296989</v>
+        <v>-48.75899025157401</v>
       </c>
       <c r="H12">
-        <v>1191.172451976855</v>
+        <v>1220.39923089385</v>
       </c>
       <c r="I12">
-        <v>-1170.466933822766</v>
+        <v>-1142.295025587649</v>
       </c>
       <c r="J12">
-        <v>1550.382359694456</v>
+        <v>1456.188579083588</v>
       </c>
       <c r="K12">
-        <v>2349.677404971523</v>
+        <v>2329.677562139711</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>120.8204858378465</v>
+        <v>127.9530807428409</v>
       </c>
       <c r="G13">
-        <v>-33.41207453644597</v>
+        <v>-32.65627949712626</v>
       </c>
       <c r="H13">
-        <v>1213.706560873169</v>
+        <v>1299.946998785733</v>
       </c>
       <c r="I13">
-        <v>-1187.54460375108</v>
+        <v>-1078.600777805699</v>
       </c>
       <c r="J13">
-        <v>1533.938209274781</v>
+        <v>1461.033294311592</v>
       </c>
       <c r="K13">
-        <v>2554.46386287976</v>
+        <v>2614.985162926139</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>111.6100252561749</v>
+        <v>106.5393389706787</v>
       </c>
       <c r="G14">
-        <v>-18.05548448375769</v>
+        <v>-17.07327050825246</v>
       </c>
       <c r="H14">
-        <v>1318.196800618841</v>
+        <v>1283.524743088231</v>
       </c>
       <c r="I14">
-        <v>-1122.635066295128</v>
+        <v>-1135.448636764337</v>
       </c>
       <c r="J14">
-        <v>1349.176789660188</v>
+        <v>1420.504246163191</v>
       </c>
       <c r="K14">
-        <v>2708.549716967967</v>
+        <v>2684.1242128576</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>97.63819277573347</v>
+        <v>102.1802784934676</v>
       </c>
       <c r="G15">
-        <v>-0.8889991567719698</v>
+        <v>-0.9122103858449956</v>
       </c>
       <c r="H15">
-        <v>1440.457976887068</v>
+        <v>1356.850848197005</v>
       </c>
       <c r="I15">
-        <v>-1040.013112111329</v>
+        <v>-1070.7269090558</v>
       </c>
       <c r="J15">
-        <v>1429.316296240728</v>
+        <v>1364.207199448546</v>
       </c>
       <c r="K15">
-        <v>2718.66050336221</v>
+        <v>2812.257793208076</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>94.60697564069649</v>
+        <v>95.07636938819357</v>
       </c>
       <c r="G16">
-        <v>16.23490976784026</v>
+        <v>16.32442264115088</v>
       </c>
       <c r="H16">
-        <v>1434.414121641186</v>
+        <v>1417.309737653069</v>
       </c>
       <c r="I16">
-        <v>-1035.902855246103</v>
+        <v>-1004.584778464064</v>
       </c>
       <c r="J16">
-        <v>1337.186633062268</v>
+        <v>1277.920414322597</v>
       </c>
       <c r="K16">
-        <v>2790.011577061487</v>
+        <v>2957.639565213221</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.70658177818294</v>
+        <v>84.3142209720222</v>
       </c>
       <c r="G17">
-        <v>30.55147396555942</v>
+        <v>31.65291371191352</v>
       </c>
       <c r="H17">
-        <v>1535.258503479507</v>
+        <v>1397.844262372313</v>
       </c>
       <c r="I17">
-        <v>-952.399626168047</v>
+        <v>-959.1178780300452</v>
       </c>
       <c r="J17">
-        <v>1230.668016613098</v>
+        <v>1332.421838428306</v>
       </c>
       <c r="K17">
-        <v>2940.497019333272</v>
+        <v>2893.938324996268</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>85.38694016979704</v>
+        <v>83.11434768847842</v>
       </c>
       <c r="G18">
-        <v>50.29694586267112</v>
+        <v>46.55659433776366</v>
       </c>
       <c r="H18">
-        <v>1517.468339420556</v>
+        <v>1555.958960745374</v>
       </c>
       <c r="I18">
-        <v>-888.761940082293</v>
+        <v>-925.4436014998267</v>
       </c>
       <c r="J18">
-        <v>1279.342764375038</v>
+        <v>1163.796280959713</v>
       </c>
       <c r="K18">
-        <v>3163.400772768779</v>
+        <v>2936.536475780212</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>78.57066363417765</v>
+        <v>75.50260297756186</v>
       </c>
       <c r="G19">
-        <v>66.99218771222775</v>
+        <v>62.4166039528211</v>
       </c>
       <c r="H19">
-        <v>1516.601919974392</v>
+        <v>1576.564777040602</v>
       </c>
       <c r="I19">
-        <v>-885.2104223871895</v>
+        <v>-842.6350637450118</v>
       </c>
       <c r="J19">
-        <v>1189.767135821947</v>
+        <v>1231.290274211795</v>
       </c>
       <c r="K19">
-        <v>3197.331767528116</v>
+        <v>3249.190758428028</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>76.2749803400891</v>
+        <v>73.53187215620345</v>
       </c>
       <c r="G20">
-        <v>79.19076633924838</v>
+        <v>81.00920900623321</v>
       </c>
       <c r="H20">
-        <v>1518.24449931518</v>
+        <v>1557.512718139675</v>
       </c>
       <c r="I20">
-        <v>-848.2352620630486</v>
+        <v>-876.7086000937909</v>
       </c>
       <c r="J20">
-        <v>1097.849027233043</v>
+        <v>1093.917443638389</v>
       </c>
       <c r="K20">
-        <v>3130.127265754658</v>
+        <v>3066.480764999285</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.17820045650302</v>
+        <v>68.79316706776181</v>
       </c>
       <c r="G21">
-        <v>96.15331780974985</v>
+        <v>95.65270395377297</v>
       </c>
       <c r="H21">
-        <v>1519.428764206779</v>
+        <v>1618.017827463927</v>
       </c>
       <c r="I21">
-        <v>-811.5671733900355</v>
+        <v>-812.316035816317</v>
       </c>
       <c r="J21">
-        <v>1069.669069049296</v>
+        <v>1118.574237192177</v>
       </c>
       <c r="K21">
-        <v>3225.48824408927</v>
+        <v>3101.187747264437</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>71.2851511182438</v>
+        <v>68.23735243148542</v>
       </c>
       <c r="G22">
-        <v>109.2061650035312</v>
+        <v>110.0898981468642</v>
       </c>
       <c r="H22">
-        <v>1677.657125955663</v>
+        <v>1663.212700351616</v>
       </c>
       <c r="I22">
-        <v>-735.4333545424389</v>
+        <v>-711.7904490407226</v>
       </c>
       <c r="J22">
-        <v>1040.433439931315</v>
+        <v>1077.629304086115</v>
       </c>
       <c r="K22">
-        <v>3096.214446944316</v>
+        <v>3243.56166271369</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>66.28525755706704</v>
+        <v>63.37404037758142</v>
       </c>
       <c r="G23">
-        <v>133.7955611681139</v>
+        <v>136.3211672626147</v>
       </c>
       <c r="H23">
-        <v>1675.744182571267</v>
+        <v>1643.836955179145</v>
       </c>
       <c r="I23">
-        <v>-693.3934089235676</v>
+        <v>-714.3892287143555</v>
       </c>
       <c r="J23">
-        <v>968.8177032449202</v>
+        <v>976.2145421570698</v>
       </c>
       <c r="K23">
-        <v>3233.998818255827</v>
+        <v>3156.547142935171</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>66.21111335138714</v>
+        <v>66.64222631768939</v>
       </c>
       <c r="G24">
-        <v>149.0074721337579</v>
+        <v>148.8320886121913</v>
       </c>
       <c r="H24">
-        <v>1723.419115076143</v>
+        <v>1623.480087806013</v>
       </c>
       <c r="I24">
-        <v>-657.0366832291439</v>
+        <v>-621.294450515114</v>
       </c>
       <c r="J24">
-        <v>973.0489682357155</v>
+        <v>922.3428931415638</v>
       </c>
       <c r="K24">
-        <v>3259.442534385434</v>
+        <v>3130.039802361331</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.05477247430787</v>
+        <v>63.23602840787277</v>
       </c>
       <c r="G25">
-        <v>166.7489129439101</v>
+        <v>167.7062074302503</v>
       </c>
       <c r="H25">
-        <v>1686.168216061707</v>
+        <v>1708.129937588179</v>
       </c>
       <c r="I25">
-        <v>-589.3640366782662</v>
+        <v>-605.391204077094</v>
       </c>
       <c r="J25">
-        <v>916.3942230229912</v>
+        <v>897.5159474794845</v>
       </c>
       <c r="K25">
-        <v>3201.218113528166</v>
+        <v>3107.719187114655</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.28755530563516</v>
+        <v>58.0886117361927</v>
       </c>
       <c r="G26">
-        <v>186.7642581563699</v>
+        <v>179.2106611116973</v>
       </c>
       <c r="H26">
-        <v>1721.022078429161</v>
+        <v>1731.678514037203</v>
       </c>
       <c r="I26">
-        <v>-545.8031371261829</v>
+        <v>-548.7153294163311</v>
       </c>
       <c r="J26">
-        <v>872.4820399448189</v>
+        <v>856.933796393288</v>
       </c>
       <c r="K26">
-        <v>3254.39718938291</v>
+        <v>3156.038434234282</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.10946463308105</v>
+        <v>55.46259724424393</v>
       </c>
       <c r="G27">
-        <v>191.3793135563317</v>
+        <v>188.1253102449667</v>
       </c>
       <c r="H27">
-        <v>1739.829950941139</v>
+        <v>1693.157454383803</v>
       </c>
       <c r="I27">
-        <v>-515.2415563174766</v>
+        <v>-487.6774770309303</v>
       </c>
       <c r="J27">
-        <v>791.695218025249</v>
+        <v>815.9647988748812</v>
       </c>
       <c r="K27">
-        <v>3157.990363925657</v>
+        <v>3080.647115621485</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>54.02905269891234</v>
+        <v>58.47101364741544</v>
       </c>
       <c r="G28">
-        <v>213.4731500036334</v>
+        <v>222.5661055698164</v>
       </c>
       <c r="H28">
-        <v>1670.702206298577</v>
+        <v>1727.71478406179</v>
       </c>
       <c r="I28">
-        <v>-455.2546255343504</v>
+        <v>-446.6770558052265</v>
       </c>
       <c r="J28">
-        <v>740.6182601439807</v>
+        <v>719.5737374426653</v>
       </c>
       <c r="K28">
-        <v>2920.638644065524</v>
+        <v>3067.726392536269</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.24460244257794</v>
+        <v>53.53461243458661</v>
       </c>
       <c r="G29">
-        <v>226.3727161018702</v>
+        <v>232.6012731809488</v>
       </c>
       <c r="H29">
-        <v>1758.641748801244</v>
+        <v>1699.426101713368</v>
       </c>
       <c r="I29">
-        <v>-373.0500845457283</v>
+        <v>-382.3667727650451</v>
       </c>
       <c r="J29">
-        <v>658.1071890768822</v>
+        <v>712.5470650236103</v>
       </c>
       <c r="K29">
-        <v>2966.39327258377</v>
+        <v>2973.822902055524</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>56.35702725539433</v>
+        <v>54.95898051721635</v>
       </c>
       <c r="G30">
-        <v>254.2015879518131</v>
+        <v>234.7516067787142</v>
       </c>
       <c r="H30">
-        <v>1794.409255515416</v>
+        <v>1751.099896440835</v>
       </c>
       <c r="I30">
-        <v>-324.8082577161906</v>
+        <v>-339.8378148162761</v>
       </c>
       <c r="J30">
-        <v>657.8869526090656</v>
+        <v>654.584348450141</v>
       </c>
       <c r="K30">
-        <v>2832.000108052817</v>
+        <v>2853.762273028665</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.50802259200304</v>
+        <v>52.10805502498619</v>
       </c>
       <c r="G31">
-        <v>271.4164734695399</v>
+        <v>268.9103443512708</v>
       </c>
       <c r="H31">
-        <v>1760.150836602294</v>
+        <v>1845.662844642511</v>
       </c>
       <c r="I31">
-        <v>-276.2175243433988</v>
+        <v>-267.9362928075345</v>
       </c>
       <c r="J31">
-        <v>578.2900117104409</v>
+        <v>615.745130112155</v>
       </c>
       <c r="K31">
-        <v>2630.808201280539</v>
+        <v>2569.502771910753</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.30272381592648</v>
+        <v>52.72291175598728</v>
       </c>
       <c r="G32">
-        <v>285.8450883822919</v>
+        <v>288.5803927905218</v>
       </c>
       <c r="H32">
-        <v>1860.705099939284</v>
+        <v>1844.452558757815</v>
       </c>
       <c r="I32">
-        <v>-210.3482530432246</v>
+        <v>-199.5495419027765</v>
       </c>
       <c r="J32">
-        <v>528.5501186270857</v>
+        <v>530.4330311787791</v>
       </c>
       <c r="K32">
-        <v>2576.090883487852</v>
+        <v>2626.558779539952</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.19280134911652</v>
+        <v>47.77845817357367</v>
       </c>
       <c r="G33">
-        <v>282.967634061923</v>
+        <v>310.8974928496676</v>
       </c>
       <c r="H33">
-        <v>1715.743573590779</v>
+        <v>1881.192450111057</v>
       </c>
       <c r="I33">
-        <v>-144.2342688766356</v>
+        <v>-144.6395315495198</v>
       </c>
       <c r="J33">
-        <v>485.6955898121205</v>
+        <v>488.2285655312156</v>
       </c>
       <c r="K33">
-        <v>2300.606485801937</v>
+        <v>2349.92589034276</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.31212345544706</v>
+        <v>46.88816098147667</v>
       </c>
       <c r="G34">
-        <v>313.1383818595282</v>
+        <v>321.4674656699149</v>
       </c>
       <c r="H34">
-        <v>1735.018032652207</v>
+        <v>1897.108909379807</v>
       </c>
       <c r="I34">
-        <v>-81.62964454840754</v>
+        <v>-86.03661490383494</v>
       </c>
       <c r="J34">
-        <v>446.1754929667842</v>
+        <v>441.0141513828227</v>
       </c>
       <c r="K34">
-        <v>2290.880508441656</v>
+        <v>2135.871903100213</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.91564150780496</v>
+        <v>46.67539236187943</v>
       </c>
       <c r="G35">
-        <v>323.1855756096634</v>
+        <v>338.8378667887994</v>
       </c>
       <c r="H35">
-        <v>1908.747452163058</v>
+        <v>1870.152239502155</v>
       </c>
       <c r="I35">
-        <v>-19.02033533041751</v>
+        <v>-18.15838054112513</v>
       </c>
       <c r="J35">
-        <v>398.8473907591606</v>
+        <v>380.6050880118946</v>
       </c>
       <c r="K35">
-        <v>2000.88643189775</v>
+        <v>2094.134189325065</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.63637971822869</v>
+        <v>45.78884853154417</v>
       </c>
       <c r="G36">
-        <v>341.8743710926348</v>
+        <v>343.8851453325409</v>
       </c>
       <c r="H36">
-        <v>1800.611298363381</v>
+        <v>1914.025443387467</v>
       </c>
       <c r="I36">
-        <v>46.7039655934279</v>
+        <v>46.13234274863896</v>
       </c>
       <c r="J36">
-        <v>336.621875247174</v>
+        <v>343.3150119707166</v>
       </c>
       <c r="K36">
-        <v>1827.046463615462</v>
+        <v>1920.105867385166</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.72611183301565</v>
+        <v>46.70378468130389</v>
       </c>
       <c r="G37">
-        <v>363.5597653175582</v>
+        <v>356.575298953815</v>
       </c>
       <c r="H37">
-        <v>1913.835831140581</v>
+        <v>1896.854289448627</v>
       </c>
       <c r="I37">
-        <v>116.5587595073137</v>
+        <v>113.357318725254</v>
       </c>
       <c r="J37">
-        <v>307.0897429541889</v>
+        <v>290.4213604754526</v>
       </c>
       <c r="K37">
-        <v>1628.965489497102</v>
+        <v>1624.282176217267</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.21632633713923</v>
+        <v>45.01877883449377</v>
       </c>
       <c r="G38">
-        <v>363.2916868539279</v>
+        <v>397.0670960412068</v>
       </c>
       <c r="H38">
-        <v>1910.846226759037</v>
+        <v>1811.556052430262</v>
       </c>
       <c r="I38">
-        <v>191.6477395234345</v>
+        <v>190.4811032424557</v>
       </c>
       <c r="J38">
-        <v>236.1444247515539</v>
+        <v>249.999246466986</v>
       </c>
       <c r="K38">
-        <v>1364.853910389744</v>
+        <v>1446.480818541173</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.69406491260796</v>
+        <v>45.29900305764687</v>
       </c>
       <c r="G39">
-        <v>399.6272926089572</v>
+        <v>408.5631757858298</v>
       </c>
       <c r="H39">
-        <v>1797.233796095785</v>
+        <v>1928.937089590215</v>
       </c>
       <c r="I39">
-        <v>268.0426185250178</v>
+        <v>251.123759728558</v>
       </c>
       <c r="J39">
-        <v>193.299262412748</v>
+        <v>204.292985994463</v>
       </c>
       <c r="K39">
-        <v>1201.661811872933</v>
+        <v>1175.125689345737</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.39938694143964</v>
+        <v>42.80957287946612</v>
       </c>
       <c r="G40">
-        <v>427.2589785857126</v>
+        <v>402.2506722160885</v>
       </c>
       <c r="H40">
-        <v>1903.741363227835</v>
+        <v>1827.741405059635</v>
       </c>
       <c r="I40">
-        <v>338.5434205219151</v>
+        <v>333.9797037038686</v>
       </c>
       <c r="J40">
-        <v>146.1879028575573</v>
+        <v>148.1815370198431</v>
       </c>
       <c r="K40">
-        <v>910.8299725850896</v>
+        <v>850.3233401383837</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.72663701415476</v>
+        <v>44.56911980634633</v>
       </c>
       <c r="G41">
-        <v>427.8522177758761</v>
+        <v>445.6587260600667</v>
       </c>
       <c r="H41">
-        <v>1863.62064660681</v>
+        <v>1917.927996391222</v>
       </c>
       <c r="I41">
-        <v>394.085998212396</v>
+        <v>408.3501898184076</v>
       </c>
       <c r="J41">
-        <v>105.4688727727588</v>
+        <v>105.2152891783108</v>
       </c>
       <c r="K41">
-        <v>610.1526050492625</v>
+        <v>598.2721022353924</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.00862047055943</v>
+        <v>43.92967098269391</v>
       </c>
       <c r="G42">
-        <v>454.8067813583975</v>
+        <v>454.2072826336197</v>
       </c>
       <c r="H42">
-        <v>1899.801157010124</v>
+        <v>1928.863476361377</v>
       </c>
       <c r="I42">
-        <v>480.4776725302189</v>
+        <v>466.4516198387338</v>
       </c>
       <c r="J42">
-        <v>55.2293620658735</v>
+        <v>52.1580583226683</v>
       </c>
       <c r="K42">
-        <v>324.9491283797011</v>
+        <v>328.2043390230135</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>43.77209527212372</v>
+        <v>41.61862584698214</v>
       </c>
       <c r="G43">
-        <v>473.703448737747</v>
+        <v>443.5815470229875</v>
       </c>
       <c r="H43">
-        <v>1923.176248881126</v>
+        <v>1834.620362891704</v>
       </c>
       <c r="I43">
-        <v>563.1035069630706</v>
+        <v>568.6926340954324</v>
       </c>
       <c r="J43">
-        <v>5.295078610973212</v>
+        <v>5.522103718035617</v>
       </c>
       <c r="K43">
-        <v>33.53508943144235</v>
+        <v>34.54719791845171</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>40.88211116353116</v>
+        <v>39.68759829066803</v>
       </c>
       <c r="G44">
-        <v>471.6384038400411</v>
+        <v>483.9823648334664</v>
       </c>
       <c r="H44">
-        <v>1935.653377604584</v>
+        <v>1879.678105811332</v>
       </c>
       <c r="I44">
-        <v>624.3215162491565</v>
+        <v>622.3485050297961</v>
       </c>
       <c r="J44">
-        <v>-43.00274255813832</v>
+        <v>-43.22487876003488</v>
       </c>
       <c r="K44">
-        <v>-292.4527631255249</v>
+        <v>-285.8599996775102</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.72048256386515</v>
+        <v>41.63926715418257</v>
       </c>
       <c r="G45">
-        <v>471.2435556064383</v>
+        <v>512.4785629060322</v>
       </c>
       <c r="H45">
-        <v>1841.682773084565</v>
+        <v>1940.149987146723</v>
       </c>
       <c r="I45">
-        <v>735.3918439177771</v>
+        <v>687.9930938017812</v>
       </c>
       <c r="J45">
-        <v>-91.95561374237613</v>
+        <v>-95.03084154364142</v>
       </c>
       <c r="K45">
-        <v>-616.2394201080922</v>
+        <v>-602.1741842214528</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>40.02139983304254</v>
+        <v>41.49378372563819</v>
       </c>
       <c r="G46">
-        <v>522.1443212836515</v>
+        <v>503.062566917972</v>
       </c>
       <c r="H46">
-        <v>1927.493332082361</v>
+        <v>1990.985712216084</v>
       </c>
       <c r="I46">
-        <v>825.214102773855</v>
+        <v>796.2791246030608</v>
       </c>
       <c r="J46">
-        <v>-144.5417803656331</v>
+        <v>-135.7992344865727</v>
       </c>
       <c r="K46">
-        <v>-996.2808162938171</v>
+        <v>-1000.140487831556</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.54296425869497</v>
+        <v>39.65142977818454</v>
       </c>
       <c r="G47">
-        <v>552.9637790694661</v>
+        <v>512.1640644314061</v>
       </c>
       <c r="H47">
-        <v>2004.310871665437</v>
+        <v>1972.835399102458</v>
       </c>
       <c r="I47">
-        <v>854.4969873635013</v>
+        <v>856.8416974050682</v>
       </c>
       <c r="J47">
-        <v>-195.4067672988733</v>
+        <v>-195.00627244433</v>
       </c>
       <c r="K47">
-        <v>-1362.586498187007</v>
+        <v>-1312.808662839397</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.95157261366051</v>
+        <v>41.12229690133658</v>
       </c>
       <c r="G48">
-        <v>545.8409194654557</v>
+        <v>519.1794037249116</v>
       </c>
       <c r="H48">
-        <v>1999.495340006797</v>
+        <v>2000.939022584747</v>
       </c>
       <c r="I48">
-        <v>966.4826574030959</v>
+        <v>1008.199745449964</v>
       </c>
       <c r="J48">
-        <v>-242.8907930546331</v>
+        <v>-241.4580745695458</v>
       </c>
       <c r="K48">
-        <v>-1685.147456575468</v>
+        <v>-1694.874435967578</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>37.26224410476476</v>
+        <v>39.11924647006089</v>
       </c>
       <c r="G49">
-        <v>550.3049911093968</v>
+        <v>550.2272573220156</v>
       </c>
       <c r="H49">
-        <v>1992.761891228034</v>
+        <v>1922.530468084065</v>
       </c>
       <c r="I49">
-        <v>1116.587998664201</v>
+        <v>1076.435677206063</v>
       </c>
       <c r="J49">
-        <v>-288.9971541065825</v>
+        <v>-274.9236002774859</v>
       </c>
       <c r="K49">
-        <v>-2039.4817260447</v>
+        <v>-2012.964288606456</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.91667637599093</v>
+        <v>40.31818964497335</v>
       </c>
       <c r="G50">
-        <v>562.1644572573282</v>
+        <v>559.0645727116776</v>
       </c>
       <c r="H50">
-        <v>1996.58511975015</v>
+        <v>1858.915081946432</v>
       </c>
       <c r="I50">
-        <v>1145.903217049868</v>
+        <v>1134.869318180622</v>
       </c>
       <c r="J50">
-        <v>-334.0502372342666</v>
+        <v>-343.4680100317092</v>
       </c>
       <c r="K50">
-        <v>-2559.47017173503</v>
+        <v>-2615.524548751935</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>39.66936901006929</v>
+        <v>39.49219015368411</v>
       </c>
       <c r="G51">
-        <v>575.6058505697697</v>
+        <v>594.8316616146572</v>
       </c>
       <c r="H51">
-        <v>2058.316590235712</v>
+        <v>2014.807555327315</v>
       </c>
       <c r="I51">
-        <v>1292.726236777712</v>
+        <v>1263.233661503793</v>
       </c>
       <c r="J51">
-        <v>-391.22376506267</v>
+        <v>-380.5295851083303</v>
       </c>
       <c r="K51">
-        <v>-2879.12593690942</v>
+        <v>-2913.817356923868</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.94317101979357</v>
+        <v>35.95534000474747</v>
       </c>
       <c r="G52">
-        <v>619.9251470940192</v>
+        <v>632.5974181316635</v>
       </c>
       <c r="H52">
-        <v>2064.766509081916</v>
+        <v>1905.004867890758</v>
       </c>
       <c r="I52">
-        <v>1361.139677807495</v>
+        <v>1302.938662166431</v>
       </c>
       <c r="J52">
-        <v>-435.9686853037624</v>
+        <v>-441.7378232903408</v>
       </c>
       <c r="K52">
-        <v>-3515.91063795212</v>
+        <v>-3504.402240578246</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.68055322296153</v>
+        <v>36.96535784359278</v>
       </c>
       <c r="G53">
-        <v>634.0086580425176</v>
+        <v>614.3458311408791</v>
       </c>
       <c r="H53">
-        <v>2008.01174135942</v>
+        <v>2071.211515076655</v>
       </c>
       <c r="I53">
-        <v>1485.890659780274</v>
+        <v>1425.90685026673</v>
       </c>
       <c r="J53">
-        <v>-501.9988815139503</v>
+        <v>-502.9588483901204</v>
       </c>
       <c r="K53">
-        <v>-3910.520480191296</v>
+        <v>-3631.369308839208</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.78040468660392</v>
+        <v>35.04149059417881</v>
       </c>
       <c r="G54">
-        <v>675.1420601275404</v>
+        <v>625.0811708053194</v>
       </c>
       <c r="H54">
-        <v>1957.583074469137</v>
+        <v>1930.5453788894</v>
       </c>
       <c r="I54">
-        <v>1612.738384835047</v>
+        <v>1573.507994326426</v>
       </c>
       <c r="J54">
-        <v>-534.7297695374344</v>
+        <v>-525.2193460522567</v>
       </c>
       <c r="K54">
-        <v>-4468.361879352267</v>
+        <v>-4202.976636712423</v>
       </c>
     </row>
   </sheetData>
